--- a/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.2.0_Requirements.xlsx
+++ b/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.2.0_Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/Inferno/Shared Documents/Testing and Development/SMART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F64B1FC3-AA50-4E8E-AF5D-23538D9E1E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C134CBE7-2013-487B-9AC9-7493E791863B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" firstSheet="1" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>

--- a/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.2.0_Requirements.xlsx
+++ b/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.2.0_Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/smart-app-launch-test-kit/lib/smart_app_launch/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7966395-9388-244E-ABE1-FF478206F1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD794982-FDDE-2F47-8747-F01370F818DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="606">
   <si>
     <r>
       <rPr>
@@ -3277,6 +3277,12 @@
       </rPr>
       <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
     </r>
+  </si>
+  <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`registration_endpoint`[is] RECOMMENDED … [and Shall contain the] URL to the OAuth2 dynamic registration endpoint for this FHIR server.</t>
+  </si>
+  <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`associated_endpoints`[is] RECOMMENDED … [and Shall contain an a]rray of objects for endpoints that share the same authorization mechanism as this FHIR endpoint, each with a “url” and “capabilities” array.</t>
   </si>
 </sst>
 </file>
@@ -4197,10 +4203,10 @@
   <dimension ref="A1:AC493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="B441" sqref="B441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14556,24 +14562,54 @@
         <v>must-support-definition-ms-and-data-absent-reasons</v>
       </c>
     </row>
-    <row r="439" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>438</v>
+      </c>
+      <c r="B439" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C439" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M439" s="34" t="str" cm="1">
         <f t="array" ref="M439">PAGE_NAME(B439)</f>
-        <v/>
+        <v>conformance</v>
       </c>
       <c r="N439" s="34" t="str" cm="1">
         <f t="array" ref="N439">SECTION_NAME(B439)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="440" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>metadata</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>439</v>
+      </c>
+      <c r="B440" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="C440" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M440" s="34" t="str" cm="1">
         <f t="array" ref="M440">PAGE_NAME(B440)</f>
-        <v/>
+        <v>conformance</v>
       </c>
       <c r="N440" s="34" t="str" cm="1">
         <f t="array" ref="N440">SECTION_NAME(B440)</f>
-        <v/>
+        <v>metadata</v>
       </c>
     </row>
     <row r="441" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -15443,6 +15479,8 @@
     <hyperlink ref="B370" r:id="rId331" location="capabilities" xr:uid="{72CA9D63-D43C-4229-9F85-1C384B13A10D}"/>
     <hyperlink ref="B371" r:id="rId332" location="capabilities" xr:uid="{2361F186-8347-42A8-81D0-F310B08B7355}"/>
     <hyperlink ref="B372" r:id="rId333" location="capabilities" xr:uid="{E41379CF-D4D2-4DC5-A897-7DE0ABFCFFFD}"/>
+    <hyperlink ref="B439" r:id="rId334" location="metadata" xr:uid="{959D4FCD-6A00-2E41-9FDB-C463D8EFD09A}"/>
+    <hyperlink ref="B440" r:id="rId335" location="metadata" xr:uid="{E1AE3417-D87F-284B-949F-2B1ED9F2602A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15452,19 +15490,19 @@
           <x14:formula1>
             <xm:f>'Column Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G1048576</xm:sqref>
+          <xm:sqref>G1:G438 G441:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4866B9BF-5615-6646-965F-909D4D65F2A5}">
           <x14:formula1>
             <xm:f>'Column Data'!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D2:D438 D441:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FB27A2-804E-CB49-B85C-BBEE0C688B4F}">
           <x14:formula1>
             <xm:f>'Column Data'!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576 I2:I1048576</xm:sqref>
+          <xm:sqref>I441:I1048576 I2:I438 K2:K438 K441:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15708,12 +15746,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15971,22 +16013,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16012,12 +16053,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.2.0_Requirements.xlsx
+++ b/lib/smart_app_launch/requirements/hl7.fhir.uv.smart-app-launch_2.2.0_Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/knaden/Documents/Inferno/source/smart-app-launch-test-kit/lib/smart_app_launch/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D18FE7A-A8DE-594A-B717-9BF86460ABC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4BCA7D-22EB-8E45-97E6-D3A05086AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" activeTab="1" xr2:uid="{D251129A-65BB-5042-909C-749E11B8C0B0}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="651">
   <si>
     <r>
       <rPr>
@@ -3066,6 +3066,175 @@
     </r>
   </si>
   <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`registration_endpoint`[is] RECOMMENDED … [and Shall contain the] URL to the OAuth2 dynamic registration endpoint for this FHIR server.</t>
+  </si>
+  <si>
+    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`associated_endpoints`[is] RECOMMENDED … [and Shall contain an a]rray of objects for endpoints that share the same authorization mechanism as this FHIR endpoint, each with a “url” and “capabilities” array.</t>
+  </si>
+  <si>
+    <t>Actors*</t>
+  </si>
+  <si>
+    <t>launch-*</t>
+  </si>
+  <si>
+    <t>launch-ehr</t>
+  </si>
+  <si>
+    <t>launch-standalone</t>
+  </si>
+  <si>
+    <t>sso-openid-connect</t>
+  </si>
+  <si>
+    <t>authorize-post</t>
+  </si>
+  <si>
+    <t>client-public</t>
+  </si>
+  <si>
+    <t>client-confidential-*</t>
+  </si>
+  <si>
+    <t>permission-online</t>
+  </si>
+  <si>
+    <t>permission-offline</t>
+  </si>
+  <si>
+    <t>permission-*</t>
+  </si>
+  <si>
+    <t>permission-v2</t>
+  </si>
+  <si>
+    <t>permission-v1</t>
+  </si>
+  <si>
+    <t>permission-patient</t>
+  </si>
+  <si>
+    <t>permission-user</t>
+  </si>
+  <si>
+    <t>Backend Services</t>
+  </si>
+  <si>
+    <t>context-*</t>
+  </si>
+  <si>
+    <t>context-ehr-patient</t>
+  </si>
+  <si>
+    <t>context-ehr-encounter</t>
+  </si>
+  <si>
+    <t>context-*-patient</t>
+  </si>
+  <si>
+    <t>context-*-encounter</t>
+  </si>
+  <si>
+    <t>context-fhirContext</t>
+  </si>
+  <si>
+    <t>context-banner</t>
+  </si>
+  <si>
+    <t>context-intent</t>
+  </si>
+  <si>
+    <t>context-style</t>
+  </si>
+  <si>
+    <t>context-tenant</t>
+  </si>
+  <si>
+    <t>context-extensions</t>
+  </si>
+  <si>
+    <t>Introspection</t>
+  </si>
+  <si>
+    <t>client-confidential-asymmetric</t>
+  </si>
+  <si>
+    <t>client-confidential-symmetric</t>
+  </si>
+  <si>
+    <t>Patient Access for Standalone Apps</t>
+  </si>
+  <si>
+    <t>Patient Access for EHR Launch</t>
+  </si>
+  <si>
+    <t>Clinician Access for Standalone</t>
+  </si>
+  <si>
+    <t>Clinician Access for EHR Launch</t>
+  </si>
+  <si>
+    <t>context-standalone-patient</t>
+  </si>
+  <si>
+    <t>context-standalone-encounter</t>
+  </si>
+  <si>
+    <t>well-known</t>
+  </si>
+  <si>
+    <t>smart-app-state</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Groupings (Column P)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on SMART Capabilities (https://hl7.org/fhir/smart-app-launch/STU2/conformance.html#smart-on-fhir-oauth-authorization-endpoints-and-capabilities)
+- well-known: requirements related to capabilities and publication of them
+- launch-*: app-launch requirements, pertaining to both ehr and standalone launch
+- launch-ehr: app-launch requirements, pertaining speicifically to ehr launch
+- launch-standalone: app-launch requirements, pertaining speicifically to standalone launch
+- Backend Services: backend services-based access requirements
+- Introspection: requirements related to token introspection capabilities
+- Brands: requirements related to User-access Brands and Endpoints functionality
+- client-public: requirements related to public clients
+- client-confidential-*: requirements related to all flavors of confidential clients
+- client-confidential-symmetric: requirements related to confidential clients using symmetric authentication
+- client-confidential-asymmetric: requirements related to confidential clients using asymmetric authentication
+- sso-openid-connect: requirements related to exposing identity details
+- authorize-post: requirements for support of post-based authorization requests
+- smart-app-state: requirements related to experimental support for app state persistance
+- permission-online: requirements related to issuing refresh tokens for access as long as the user is online
+- permission-offline: requirements related to issuing refresh tokens for access beyond when the user is online
+- permission-*: requirements related to smart scopes
+- permission-v2: requirements related to v2 of the smart scopes syntax
+- permission-v1: requirements related to v1 of the smart scopes syntax
+- permission-patient: requirements related to requesting and providing access to a specific patient's data
+- permission-user: requirements related to requesting and providing access to a specific user
+</t>
+  </si>
+  <si>
+    <t>continued…</t>
+  </si>
+  <si>
+    <t>- context-*: requirements related to requests for and provision of context from the server to the client
+- context-ehr-patient: requirements related to requests for and provision of patient context during ehr launch
+- context-ehr-patient: requirements related to requests for and provision of encounter context during ehr launch
+- context-standalone-patient: requirements related to requests for and provision of patient context during standalone launch
+- context-standalone-patient: requirements related to requests for and provision of encounter context during standalone launch
+- context-*-patient: requirements related to requests for and provision of patient context during any type of launch
+- context-*-encounter: requirements related to requests for and provision of encounter context during any type of launch
+- context-fhirContext: requirements related to requests for and provision of additional fhir context data.
+- context-banner: requirements related to banner context details
+- context-intent: requirements related to intent context details
+- context-style: requirements related to style context details
+- context-tenant: requirements related to tentant context details
+- context-extensions: requirements around extensions to context data, including requests for and provision of that information</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Metadata
 </t>
@@ -3272,24 +3441,45 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.</t>
+      <t xml:space="preserve">E.g., for  Da Vinci Payer Data Exchange (v2.0.0: STU2), Reference would be https://hl7.org/fhir/us/davinci-pdex/STU2/.
+Additional metadata:
+</t>
     </r>
-  </si>
-  <si>
-    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`registration_endpoint`[is] RECOMMENDED … [and Shall contain the] URL to the OAuth2 dynamic registration endpoint for this FHIR server.</t>
-  </si>
-  <si>
-    <t>[When responding to a `/.well-known/smart-configuration` request the] ...Metadata ...`associated_endpoints`[is] RECOMMENDED … [and Shall contain an a]rray of objects for endpoints that share the same authorization mechanism as this FHIR endpoint, each with a “url” and “capabilities” array.</t>
-  </si>
-  <si>
-    <t>Actors*</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Groupings (Column P):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> definitions of the Groupings in Column P of the Requirements sheet. </t>
+    </r>
+  </si>
+  <si>
+    <t>launch-*, Backend Services</t>
+  </si>
+  <si>
+    <t>For grouping, Adding backend services since conformance is a requirement for it as well.</t>
+  </si>
+  <si>
+    <t>For grouping, this is tested and applicable to backend services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3427,8 +3617,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3489,8 +3686,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3649,12 +3852,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3758,6 +3976,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4148,14 +4378,14 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>601</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="258" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="27"/>
       <c r="C5" s="22"/>
     </row>
@@ -4167,17 +4397,17 @@
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="46"/>
     </row>
     <row r="8" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
     </row>
     <row r="9" spans="1:3" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" ht="292" x14ac:dyDescent="0.2">
@@ -4203,10 +4433,10 @@
   <dimension ref="A1:AC493"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G345" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4250,7 +4480,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -4331,7 +4561,9 @@
         <v>app-protection</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
@@ -4372,7 +4604,9 @@
         <v>app-protection</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -4414,7 +4648,9 @@
         <v>app-protection</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -4456,7 +4692,9 @@
         <v>app-protection</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -4498,7 +4736,9 @@
         <v>app-protection</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -4540,7 +4780,9 @@
         <v>app-protection</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -4582,7 +4824,9 @@
         <v>app-protection</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -4624,7 +4868,9 @@
         <v>app-protection</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -4666,7 +4912,9 @@
         <v>app-protection</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -4700,6 +4948,9 @@
         <f t="array" ref="N11">SECTION_NAME(B11)</f>
         <v>support-for-public-and-confidential-apps</v>
       </c>
+      <c r="P11" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="12" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -4725,6 +4976,9 @@
         <f t="array" ref="N12">SECTION_NAME(B12)</f>
         <v>determining-the-appropriate-app-type</v>
       </c>
+      <c r="P12" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -4750,6 +5004,9 @@
         <f t="array" ref="N13">SECTION_NAME(B13)</f>
         <v>determining-the-appropriate-app-type</v>
       </c>
+      <c r="P13" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="14" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -4775,6 +5032,9 @@
         <f t="array" ref="N14">SECTION_NAME(B14)</f>
         <v>considerations-for-pkce-support</v>
       </c>
+      <c r="P14" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="15" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -4800,6 +5060,9 @@
         <f t="array" ref="N15">SECTION_NAME(B15)</f>
         <v>considerations-for-pkce-support</v>
       </c>
+      <c r="P15" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="16" spans="1:29" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -4825,6 +5088,9 @@
         <f t="array" ref="N16">SECTION_NAME(B16)</f>
         <v>considerations-for-pkce-support</v>
       </c>
+      <c r="P16" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -4850,6 +5116,9 @@
         <f t="array" ref="N17">SECTION_NAME(B17)</f>
         <v>considerations-for-cross-origin-resource-sharing-cors-support</v>
       </c>
+      <c r="P17" s="6" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -4875,6 +5144,9 @@
         <f t="array" ref="N18">SECTION_NAME(B18)</f>
         <v>considerations-for-cross-origin-resource-sharing-cors-support</v>
       </c>
+      <c r="P18" s="6" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -4900,6 +5172,9 @@
         <f t="array" ref="N19">SECTION_NAME(B19)</f>
         <v>smart-authorization--fhir-access-overview</v>
       </c>
+      <c r="P19" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="T19" s="6" t="s">
         <v>56</v>
       </c>
@@ -4928,6 +5203,9 @@
         <f t="array" ref="N20">SECTION_NAME(B20)</f>
         <v>register-app-with-ehr</v>
       </c>
+      <c r="P20" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="T20" s="6" t="s">
         <v>56</v>
       </c>
@@ -4948,6 +5226,9 @@
       <c r="E21" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P21" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -4965,6 +5246,9 @@
       <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P22" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -4982,6 +5266,9 @@
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P23" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -4999,6 +5286,9 @@
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P24" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -5016,6 +5306,9 @@
       <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P25" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -5145,6 +5438,9 @@
       <c r="E30" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P30" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -5170,6 +5466,12 @@
         <f t="array" ref="N31">SECTION_NAME(B31)</f>
         <v>response-3</v>
       </c>
+      <c r="P31" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -5195,6 +5497,9 @@
         <f t="array" ref="N32">SECTION_NAME(B32)</f>
         <v>request-4</v>
       </c>
+      <c r="P32" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -5220,6 +5525,9 @@
         <f t="array" ref="N33">SECTION_NAME(B33)</f>
         <v>request-4</v>
       </c>
+      <c r="P33" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -5245,6 +5553,9 @@
         <f t="array" ref="N34">SECTION_NAME(B34)</f>
         <v>request-4</v>
       </c>
+      <c r="P34" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -5270,6 +5581,9 @@
         <f t="array" ref="N35">SECTION_NAME(B35)</f>
         <v>request-4</v>
       </c>
+      <c r="P35" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -5295,6 +5609,9 @@
         <f t="array" ref="N36">SECTION_NAME(B36)</f>
         <v>request-4</v>
       </c>
+      <c r="P36" s="6" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -5320,6 +5637,9 @@
         <f t="array" ref="N37">SECTION_NAME(B37)</f>
         <v>request-4</v>
       </c>
+      <c r="P37" s="6" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -5345,6 +5665,9 @@
         <f t="array" ref="N38">SECTION_NAME(B38)</f>
         <v>request-4</v>
       </c>
+      <c r="P38" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="T38" s="6" t="s">
         <v>86</v>
       </c>
@@ -5401,6 +5724,9 @@
         <f t="array" ref="N40">SECTION_NAME(B40)</f>
         <v>request-4</v>
       </c>
+      <c r="P40" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -5426,6 +5752,9 @@
         <f t="array" ref="N41">SECTION_NAME(B41)</f>
         <v>request-4</v>
       </c>
+      <c r="P41" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -5451,6 +5780,9 @@
         <f t="array" ref="N42">SECTION_NAME(B42)</f>
         <v>request-4</v>
       </c>
+      <c r="P42" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -5476,6 +5808,9 @@
         <f t="array" ref="N43">SECTION_NAME(B43)</f>
         <v>request-4</v>
       </c>
+      <c r="P43" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -5501,6 +5836,9 @@
         <f t="array" ref="N44">SECTION_NAME(B44)</f>
         <v>request-4</v>
       </c>
+      <c r="P44" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="45" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
@@ -5526,6 +5864,9 @@
         <f t="array" ref="N45">SECTION_NAME(B45)</f>
         <v>request-4</v>
       </c>
+      <c r="P45" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -5551,6 +5892,9 @@
         <f t="array" ref="N46">SECTION_NAME(B46)</f>
         <v>request-4</v>
       </c>
+      <c r="P46" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -5576,6 +5920,9 @@
         <f t="array" ref="N47">SECTION_NAME(B47)</f>
         <v>request-4</v>
       </c>
+      <c r="P47" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -5601,6 +5948,9 @@
         <f t="array" ref="N48">SECTION_NAME(B48)</f>
         <v>request-4</v>
       </c>
+      <c r="P48" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="49" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -5626,6 +5976,9 @@
         <f t="array" ref="N49">SECTION_NAME(B49)</f>
         <v>request-4</v>
       </c>
+      <c r="P49" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="50" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -5651,6 +6004,9 @@
         <f t="array" ref="N50">SECTION_NAME(B50)</f>
         <v>request-4</v>
       </c>
+      <c r="P50" s="6" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="51" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -5676,6 +6032,9 @@
         <f t="array" ref="N51">SECTION_NAME(B51)</f>
         <v>request-4</v>
       </c>
+      <c r="P51" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="52" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -5701,6 +6060,9 @@
         <f t="array" ref="N52">SECTION_NAME(B52)</f>
         <v>request-4</v>
       </c>
+      <c r="P52" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -5726,6 +6088,9 @@
         <f t="array" ref="N53">SECTION_NAME(B53)</f>
         <v>request-4</v>
       </c>
+      <c r="P53" s="6" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="54" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -5743,6 +6108,9 @@
       <c r="E54" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="P54" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -5768,6 +6136,9 @@
         <f t="array" ref="N55">SECTION_NAME(B55)</f>
         <v>response-4</v>
       </c>
+      <c r="P55" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="56" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -5813,6 +6184,9 @@
         <f t="array" ref="N57">SECTION_NAME(B57)</f>
         <v>response-4</v>
       </c>
+      <c r="P57" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="58" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -5838,6 +6212,9 @@
         <f t="array" ref="N58">SECTION_NAME(B58)</f>
         <v>response-4</v>
       </c>
+      <c r="P58" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -5863,6 +6240,9 @@
         <f t="array" ref="N59">SECTION_NAME(B59)</f>
         <v>response-4</v>
       </c>
+      <c r="P59" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
@@ -5888,6 +6268,9 @@
         <f t="array" ref="N60">SECTION_NAME(B60)</f>
         <v>response-4</v>
       </c>
+      <c r="P60" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -5913,6 +6296,9 @@
         <f t="array" ref="N61">SECTION_NAME(B61)</f>
         <v>response-4</v>
       </c>
+      <c r="P61" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
@@ -5938,6 +6324,9 @@
         <f t="array" ref="N62">SECTION_NAME(B62)</f>
         <v>response-4</v>
       </c>
+      <c r="P62" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
@@ -5963,6 +6352,9 @@
         <f t="array" ref="N63">SECTION_NAME(B63)</f>
         <v>request-5</v>
       </c>
+      <c r="P63" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
@@ -5988,8 +6380,11 @@
         <f t="array" ref="N64">SECTION_NAME(B64)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P64" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6013,8 +6408,11 @@
         <f t="array" ref="N65">SECTION_NAME(B65)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P65" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6030,8 +6428,11 @@
       <c r="E66" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P66" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6055,8 +6456,11 @@
         <f t="array" ref="N67">SECTION_NAME(B67)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P67" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6080,8 +6484,11 @@
         <f t="array" ref="N68">SECTION_NAME(B68)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P68" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6105,8 +6512,11 @@
         <f t="array" ref="N69">SECTION_NAME(B69)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P69" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6130,8 +6540,11 @@
         <f t="array" ref="N70">SECTION_NAME(B70)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P70" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6155,8 +6568,11 @@
         <f t="array" ref="N71">SECTION_NAME(B71)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P71" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6180,8 +6596,11 @@
         <f t="array" ref="N72">SECTION_NAME(B72)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P72" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6205,8 +6624,11 @@
         <f t="array" ref="N73">SECTION_NAME(B73)</f>
         <v>request-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P73" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6230,8 +6652,11 @@
         <f t="array" ref="N74">SECTION_NAME(B74)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P74" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6255,8 +6680,11 @@
         <f t="array" ref="N75">SECTION_NAME(B75)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P75" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6280,8 +6708,11 @@
         <f t="array" ref="N76">SECTION_NAME(B76)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P76" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6305,8 +6736,11 @@
         <f t="array" ref="N77">SECTION_NAME(B77)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P77" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6330,8 +6764,11 @@
         <f t="array" ref="N78">SECTION_NAME(B78)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P78" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6355,8 +6792,11 @@
         <f t="array" ref="N79">SECTION_NAME(B79)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P79" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6380,8 +6820,11 @@
         <f t="array" ref="N80">SECTION_NAME(B80)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P80" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6405,8 +6848,11 @@
         <f t="array" ref="N81">SECTION_NAME(B81)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P81" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6430,8 +6876,11 @@
         <f t="array" ref="N82">SECTION_NAME(B82)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P82" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6455,8 +6904,11 @@
         <f t="array" ref="N83">SECTION_NAME(B83)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P83" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6480,8 +6932,11 @@
         <f t="array" ref="N84">SECTION_NAME(B84)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P84" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6505,8 +6960,11 @@
         <f t="array" ref="N85">SECTION_NAME(B85)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P85" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6522,8 +6980,11 @@
       <c r="E86" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P86" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6547,8 +7008,11 @@
         <f t="array" ref="N87">SECTION_NAME(B87)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P87" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6572,8 +7036,11 @@
         <f t="array" ref="N88">SECTION_NAME(B88)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P88" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6590,8 +7057,11 @@
         <v>67</v>
       </c>
       <c r="J89" s="38"/>
-    </row>
-    <row r="90" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P89" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6608,8 +7078,11 @@
         <v>67</v>
       </c>
       <c r="J90" s="38"/>
-    </row>
-    <row r="91" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P90" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -6633,8 +7106,11 @@
         <f t="array" ref="N91">SECTION_NAME(B91)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P91" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -6658,8 +7134,11 @@
         <f t="array" ref="N92">SECTION_NAME(B92)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P92" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -6683,8 +7162,11 @@
         <f t="array" ref="N93">SECTION_NAME(B93)</f>
         <v>response-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P93" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -6700,8 +7182,11 @@
       <c r="E94" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P94" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -6725,8 +7210,11 @@
         <f t="array" ref="N95">SECTION_NAME(B95)</f>
         <v>response-6</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P95" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6750,6 +7238,12 @@
         <f t="array" ref="N96">SECTION_NAME(B96)</f>
         <v>response-6</v>
       </c>
+      <c r="P96" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="T96" s="6" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="97" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
@@ -6767,6 +7261,9 @@
       <c r="E97" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P97" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="98" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
@@ -6792,6 +7289,9 @@
         <f t="array" ref="N98">SECTION_NAME(B98)</f>
         <v>response-6</v>
       </c>
+      <c r="P98" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
@@ -6817,6 +7317,9 @@
         <f t="array" ref="N99">SECTION_NAME(B99)</f>
         <v>response-6</v>
       </c>
+      <c r="P99" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
@@ -6842,6 +7345,9 @@
         <f t="array" ref="N100">SECTION_NAME(B100)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P100" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="101" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
@@ -6867,6 +7373,9 @@
         <f t="array" ref="N101">SECTION_NAME(B101)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P101" s="6" t="s">
+        <v>612</v>
+      </c>
       <c r="T101" s="6" t="s">
         <v>158</v>
       </c>
@@ -6895,6 +7404,9 @@
         <f t="array" ref="N102">SECTION_NAME(B102)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P102" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="T102" s="6" t="s">
         <v>160</v>
       </c>
@@ -6915,6 +7427,9 @@
       <c r="E103" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P103" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="104" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
@@ -6940,6 +7455,9 @@
         <f t="array" ref="N104">SECTION_NAME(B104)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P104" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="105" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
@@ -6965,6 +7483,9 @@
         <f t="array" ref="N105">SECTION_NAME(B105)</f>
         <v>refresh-access-token</v>
       </c>
+      <c r="P105" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="106" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
@@ -6990,6 +7511,9 @@
         <f t="array" ref="N106">SECTION_NAME(B106)</f>
         <v>request-7</v>
       </c>
+      <c r="P106" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="107" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
@@ -7015,6 +7539,9 @@
         <f t="array" ref="N107">SECTION_NAME(B107)</f>
         <v>request-7</v>
       </c>
+      <c r="P107" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="108" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
@@ -7040,6 +7567,9 @@
         <f t="array" ref="N108">SECTION_NAME(B108)</f>
         <v>request-7</v>
       </c>
+      <c r="P108" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="109" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
@@ -7065,6 +7595,9 @@
         <f t="array" ref="N109">SECTION_NAME(B109)</f>
         <v>request-7</v>
       </c>
+      <c r="P109" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="110" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
@@ -7090,6 +7623,9 @@
         <f t="array" ref="N110">SECTION_NAME(B110)</f>
         <v>request-7</v>
       </c>
+      <c r="P110" s="6" t="s">
+        <v>605</v>
+      </c>
       <c r="T110" s="6" t="s">
         <v>170</v>
       </c>
@@ -7118,6 +7654,9 @@
         <f t="array" ref="N111">SECTION_NAME(B111)</f>
         <v>response-7</v>
       </c>
+      <c r="P111" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="112" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
@@ -7143,8 +7682,11 @@
         <f t="array" ref="N112">SECTION_NAME(B112)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P112" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7168,8 +7710,11 @@
         <f t="array" ref="N113">SECTION_NAME(B113)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P113" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7193,8 +7738,11 @@
         <f t="array" ref="N114">SECTION_NAME(B114)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P114" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -7218,8 +7766,11 @@
         <f t="array" ref="N115">SECTION_NAME(B115)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P115" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -7243,8 +7794,11 @@
         <f t="array" ref="N116">SECTION_NAME(B116)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P116" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -7268,8 +7822,11 @@
         <f t="array" ref="N117">SECTION_NAME(B117)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P117" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -7293,8 +7850,11 @@
         <f t="array" ref="N118">SECTION_NAME(B118)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P118" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -7318,8 +7878,11 @@
         <f t="array" ref="N119">SECTION_NAME(B119)</f>
         <v>response-7</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="P119" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -7335,8 +7898,11 @@
       <c r="E120" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P120" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -7360,8 +7926,11 @@
         <f t="array" ref="N121">SECTION_NAME(B121)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P121" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -7385,8 +7954,11 @@
         <f t="array" ref="N122">SECTION_NAME(B122)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P122" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -7410,8 +7982,11 @@
         <f t="array" ref="N123">SECTION_NAME(B123)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P123" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -7427,8 +8002,11 @@
       <c r="E124" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P124" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -7452,8 +8030,11 @@
         <f t="array" ref="N125">SECTION_NAME(B125)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P125" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -7477,8 +8058,11 @@
         <f t="array" ref="N126">SECTION_NAME(B126)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P126" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -7502,8 +8086,11 @@
         <f t="array" ref="N127">SECTION_NAME(B127)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P127" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -7527,6 +8114,9 @@
         <f t="array" ref="N128">SECTION_NAME(B128)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
+      <c r="P128" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="129" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
@@ -7552,6 +8142,9 @@
         <f t="array" ref="N129">SECTION_NAME(B129)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
+      <c r="P129" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="130" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
@@ -7577,6 +8170,9 @@
         <f t="array" ref="N130">SECTION_NAME(B130)</f>
         <v>scopes-for-requesting-fhir-resources</v>
       </c>
+      <c r="P130" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="131" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
@@ -7594,6 +8190,9 @@
       <c r="E131" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P131" s="6" t="s">
+        <v>614</v>
+      </c>
       <c r="T131" s="6" t="s">
         <v>196</v>
       </c>
@@ -7622,6 +8221,9 @@
         <f t="array" ref="N132">SECTION_NAME(B132)</f>
         <v>scope-equivalence</v>
       </c>
+      <c r="P132" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="133" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
@@ -7642,6 +8244,9 @@
       <c r="G133" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="P133" s="6" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="134" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
@@ -7659,6 +8264,9 @@
       <c r="E134" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P134" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="135" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
@@ -7676,6 +8284,9 @@
       <c r="E135" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P135" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="136" spans="1:20" ht="255" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
@@ -7693,6 +8304,9 @@
       <c r="E136" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P136" s="6" t="s">
+        <v>615</v>
+      </c>
       <c r="T136" s="6" t="s">
         <v>206</v>
       </c>
@@ -7713,6 +8327,9 @@
       <c r="E137" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P137" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="138" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
@@ -7730,6 +8347,9 @@
       <c r="E138" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P138" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="139" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
@@ -7747,6 +8367,9 @@
       <c r="E139" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P139" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="140" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
@@ -7772,6 +8395,9 @@
         <f t="array" ref="N140">SECTION_NAME(B140)</f>
         <v>patient-specific-scopes</v>
       </c>
+      <c r="P140" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="141" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
@@ -7789,6 +8415,9 @@
       <c r="E141" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P141" s="6" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="142" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
@@ -7806,6 +8435,9 @@
       <c r="E142" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P142" s="6" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="143" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
@@ -7823,6 +8455,9 @@
       <c r="E143" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P143" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="144" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
@@ -7840,8 +8475,11 @@
       <c r="E144" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P144" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7857,8 +8495,11 @@
       <c r="E145" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P145" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7874,8 +8515,11 @@
       <c r="E146" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P146" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7891,8 +8535,11 @@
       <c r="E147" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P147" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7908,8 +8555,11 @@
       <c r="E148" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P148" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7933,8 +8583,11 @@
         <f t="array" ref="N149">SECTION_NAME(B149)</f>
         <v>wildcard-scopes</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P149" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7950,8 +8603,11 @@
       <c r="E150" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P150" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7967,8 +8623,11 @@
       <c r="E151" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P151" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7984,8 +8643,11 @@
       <c r="E152" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P152" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -8001,8 +8663,11 @@
       <c r="E153" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P153" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -8018,8 +8683,11 @@
       <c r="E154" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P154" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -8035,8 +8703,11 @@
       <c r="E155" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P155" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -8052,8 +8723,11 @@
       <c r="E156" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P156" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -8069,8 +8743,11 @@
       <c r="E157" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P157" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8094,8 +8771,11 @@
         <f t="array" ref="N158">SECTION_NAME(B158)</f>
         <v>scopes-for-requesting-context-data</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P158" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8119,8 +8799,11 @@
         <f t="array" ref="N159">SECTION_NAME(B159)</f>
         <v>scopes-for-requesting-context-data</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P159" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8144,6 +8827,9 @@
         <f t="array" ref="N160">SECTION_NAME(B160)</f>
         <v>scopes-for-requesting-context-data</v>
       </c>
+      <c r="P160" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="161" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
@@ -8169,6 +8855,9 @@
         <f t="array" ref="N161">SECTION_NAME(B161)</f>
         <v>scopes-for-requesting-context-data</v>
       </c>
+      <c r="P161" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="162" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
@@ -8194,6 +8883,9 @@
         <f t="array" ref="N162">SECTION_NAME(B162)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P162" s="6" t="s">
+        <v>606</v>
+      </c>
       <c r="T162" s="6" t="s">
         <v>239</v>
       </c>
@@ -8222,6 +8914,9 @@
         <f t="array" ref="N163">SECTION_NAME(B163)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P163" s="6" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="164" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
@@ -8247,6 +8942,9 @@
         <f t="array" ref="N164">SECTION_NAME(B164)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P164" s="6" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="165" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
@@ -8272,6 +8970,9 @@
         <f t="array" ref="N165">SECTION_NAME(B165)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P165" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="166" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
@@ -8297,6 +8998,9 @@
         <f t="array" ref="N166">SECTION_NAME(B166)</f>
         <v>apps-that-launch-from-the-ehr</v>
       </c>
+      <c r="P166" s="6" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="167" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
@@ -8322,6 +9026,9 @@
         <f t="array" ref="N167">SECTION_NAME(B167)</f>
         <v>standalone-apps</v>
       </c>
+      <c r="P167" s="6" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="168" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
@@ -8347,6 +9054,9 @@
         <f t="array" ref="N168">SECTION_NAME(B168)</f>
         <v>standalone-apps</v>
       </c>
+      <c r="P168" s="6" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="169" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
@@ -8372,6 +9082,9 @@
         <f t="array" ref="N169">SECTION_NAME(B169)</f>
         <v>launch-context-arrives-with-your-access_token</v>
       </c>
+      <c r="P169" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="170" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
@@ -8389,6 +9102,9 @@
       <c r="E170" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P170" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="171" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
@@ -8406,6 +9122,9 @@
       <c r="E171" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P171" s="6" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="172" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
@@ -8423,6 +9142,9 @@
       <c r="E172" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P172" s="6" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="173" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
@@ -8440,6 +9162,9 @@
       <c r="E173" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P173" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="174" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
@@ -8457,6 +9182,9 @@
       <c r="E174" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P174" s="6" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="175" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
@@ -8474,6 +9202,9 @@
       <c r="E175" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P175" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="176" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
@@ -8491,6 +9222,9 @@
       <c r="E176" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P176" s="6" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="177" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
@@ -8508,6 +9242,9 @@
       <c r="E177" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P177" s="6" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="178" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
@@ -8525,6 +9262,9 @@
       <c r="E178" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P178" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T178" s="6" t="s">
         <v>259</v>
       </c>
@@ -8545,6 +9285,9 @@
       <c r="E179" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P179" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T179" s="6" t="s">
         <v>259</v>
       </c>
@@ -8565,6 +9308,9 @@
       <c r="E180" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P180" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T180" s="6" t="s">
         <v>259</v>
       </c>
@@ -8585,6 +9331,9 @@
       <c r="E181" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P181" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T181" s="6" t="s">
         <v>259</v>
       </c>
@@ -8605,6 +9354,9 @@
       <c r="E182" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P182" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T182" s="6" t="s">
         <v>259</v>
       </c>
@@ -8625,6 +9377,9 @@
       <c r="E183" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P183" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T183" s="6" t="s">
         <v>259</v>
       </c>
@@ -8645,6 +9400,9 @@
       <c r="E184" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P184" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T184" s="6" t="s">
         <v>259</v>
       </c>
@@ -8665,6 +9423,9 @@
       <c r="E185" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P185" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T185" s="6" t="s">
         <v>259</v>
       </c>
@@ -8685,6 +9446,9 @@
       <c r="E186" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P186" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T186" s="6" t="s">
         <v>259</v>
       </c>
@@ -8705,6 +9469,9 @@
       <c r="E187" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P187" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T187" s="6" t="s">
         <v>259</v>
       </c>
@@ -8725,6 +9492,9 @@
       <c r="E188" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P188" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T188" s="6" t="s">
         <v>259</v>
       </c>
@@ -8745,6 +9515,9 @@
       <c r="E189" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P189" s="6" t="s">
+        <v>625</v>
+      </c>
       <c r="T189" s="6" t="s">
         <v>259</v>
       </c>
@@ -8765,6 +9538,9 @@
       <c r="E190" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P190" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="191" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
@@ -8782,6 +9558,9 @@
       <c r="E191" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P191" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="192" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
@@ -8799,6 +9578,9 @@
       <c r="E192" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P192" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="193" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
@@ -8816,6 +9598,9 @@
       <c r="E193" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P193" s="6" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="194" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
@@ -8841,6 +9626,9 @@
         <f t="array" ref="N194">SECTION_NAME(B194)</f>
         <v>launch-intent</v>
       </c>
+      <c r="P194" s="6" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="195" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
@@ -8858,6 +9646,9 @@
       <c r="E195" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P195" s="39" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="196" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
@@ -8883,6 +9674,9 @@
         <f t="array" ref="N196">SECTION_NAME(B196)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P196" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="197" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
@@ -8903,6 +9697,9 @@
       <c r="G197" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="P197" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="198" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
@@ -8928,6 +9725,9 @@
         <f t="array" ref="N198">SECTION_NAME(B198)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P198" s="6" t="s">
+        <v>608</v>
+      </c>
       <c r="T198" s="6" t="s">
         <v>282</v>
       </c>
@@ -8948,6 +9748,9 @@
       <c r="E199" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P199" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="200" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
@@ -8965,6 +9768,9 @@
       <c r="E200" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P200" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="201" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
@@ -8990,6 +9796,9 @@
         <f t="array" ref="N201">SECTION_NAME(B201)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P201" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="202" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
@@ -9007,6 +9816,9 @@
       <c r="E202" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P202" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="203" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
@@ -9032,6 +9844,9 @@
         <f t="array" ref="N203">SECTION_NAME(B203)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P203" s="6" t="s">
+        <v>608</v>
+      </c>
       <c r="T203" s="6" t="s">
         <v>288</v>
       </c>
@@ -9060,6 +9875,9 @@
         <f t="array" ref="N204">SECTION_NAME(B204)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P204" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="205" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
@@ -9085,6 +9903,9 @@
         <f t="array" ref="N205">SECTION_NAME(B205)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P205" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="206" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
@@ -9110,6 +9931,9 @@
         <f t="array" ref="N206">SECTION_NAME(B206)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P206" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="207" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
@@ -9135,6 +9959,9 @@
         <f t="array" ref="N207">SECTION_NAME(B207)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P207" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="208" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
@@ -9160,6 +9987,9 @@
         <f t="array" ref="N208">SECTION_NAME(B208)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P208" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="209" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
@@ -9177,6 +10007,9 @@
       <c r="E209" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P209" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="210" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
@@ -9202,6 +10035,9 @@
         <f t="array" ref="N210">SECTION_NAME(B210)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P210" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="211" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
@@ -9227,6 +10063,9 @@
         <f t="array" ref="N211">SECTION_NAME(B211)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P211" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="212" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
@@ -9252,6 +10091,9 @@
         <f t="array" ref="N212">SECTION_NAME(B212)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P212" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="213" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
@@ -9277,6 +10119,9 @@
         <f t="array" ref="N213">SECTION_NAME(B213)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P213" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="214" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
@@ -9302,6 +10147,9 @@
         <f t="array" ref="N214">SECTION_NAME(B214)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P214" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="215" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
@@ -9327,6 +10175,9 @@
         <f t="array" ref="N215">SECTION_NAME(B215)</f>
         <v>scopes-for-requesting-identity-data</v>
       </c>
+      <c r="P215" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="216" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
@@ -9352,6 +10203,9 @@
         <f t="array" ref="N216">SECTION_NAME(B216)</f>
         <v>scopes-for-requesting-a-refresh-token</v>
       </c>
+      <c r="P216" s="6" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="217" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
@@ -9377,6 +10231,9 @@
         <f t="array" ref="N217">SECTION_NAME(B217)</f>
         <v>scopes-for-requesting-a-refresh-token</v>
       </c>
+      <c r="P217" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="218" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
@@ -9394,6 +10251,9 @@
       <c r="E218" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P218" s="6" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="219" spans="1:20" ht="204" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
@@ -9419,6 +10279,9 @@
         <f t="array" ref="N219">SECTION_NAME(B219)</f>
         <v>steps-for-using-an-id-token</v>
       </c>
+      <c r="P219" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="220" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
@@ -9444,6 +10307,9 @@
         <f t="array" ref="N220">SECTION_NAME(B220)</f>
         <v>appendix-uri-representation-of-scopes</v>
       </c>
+      <c r="P220" s="6" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="221" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
@@ -9469,6 +10335,9 @@
         <f t="array" ref="N221">SECTION_NAME(B221)</f>
         <v>appendix-uri-representation-of-scopes</v>
       </c>
+      <c r="P221" s="6" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="222" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
@@ -9606,6 +10475,9 @@
         <f t="array" ref="N226">SECTION_NAME(B226)</f>
         <v>register-smart-backend-service-communicating-public-keys</v>
       </c>
+      <c r="P226" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="227" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
@@ -9631,6 +10503,9 @@
         <f t="array" ref="N227">SECTION_NAME(B227)</f>
         <v>retrieve-well-knownsmart-configuration</v>
       </c>
+      <c r="P227" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="228" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
@@ -9656,6 +10531,9 @@
         <f t="array" ref="N228">SECTION_NAME(B228)</f>
         <v>request</v>
       </c>
+      <c r="P228" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="229" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
@@ -9681,6 +10559,9 @@
         <f t="array" ref="N229">SECTION_NAME(B229)</f>
         <v>response</v>
       </c>
+      <c r="P229" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="230" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
@@ -9706,6 +10587,9 @@
         <f t="array" ref="N230">SECTION_NAME(B230)</f>
         <v>obtain-access-token</v>
       </c>
+      <c r="P230" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="231" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
@@ -9731,6 +10615,9 @@
         <f t="array" ref="N231">SECTION_NAME(B231)</f>
         <v>request-1</v>
       </c>
+      <c r="P231" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="232" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
@@ -9756,6 +10643,9 @@
         <f t="array" ref="N232">SECTION_NAME(B232)</f>
         <v>request-1</v>
       </c>
+      <c r="P232" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="233" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
@@ -9781,6 +10671,9 @@
         <f t="array" ref="N233">SECTION_NAME(B233)</f>
         <v>request-1</v>
       </c>
+      <c r="P233" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="234" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
@@ -9806,6 +10699,9 @@
         <f t="array" ref="N234">SECTION_NAME(B234)</f>
         <v>request-1</v>
       </c>
+      <c r="P234" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="235" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
@@ -9831,6 +10727,9 @@
         <f t="array" ref="N235">SECTION_NAME(B235)</f>
         <v>request-1</v>
       </c>
+      <c r="P235" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="236" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
@@ -9856,6 +10755,9 @@
         <f t="array" ref="N236">SECTION_NAME(B236)</f>
         <v>request-1</v>
       </c>
+      <c r="P236" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="237" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
@@ -9881,6 +10783,9 @@
         <f t="array" ref="N237">SECTION_NAME(B237)</f>
         <v>request-1</v>
       </c>
+      <c r="P237" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="238" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
@@ -9906,6 +10811,9 @@
         <f t="array" ref="N238">SECTION_NAME(B238)</f>
         <v>request-1</v>
       </c>
+      <c r="P238" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="239" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
@@ -9931,6 +10839,9 @@
         <f t="array" ref="N239">SECTION_NAME(B239)</f>
         <v>request-1</v>
       </c>
+      <c r="P239" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="240" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
@@ -9948,8 +10859,11 @@
       <c r="E240" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P240" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -9965,8 +10879,11 @@
       <c r="E241" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P241" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -9982,8 +10899,11 @@
       <c r="E242" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P242" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -9999,8 +10919,11 @@
       <c r="E243" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P243" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -10024,8 +10947,11 @@
         <f t="array" ref="N244">SECTION_NAME(B244)</f>
         <v>enforce-authorization</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P244" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -10049,8 +10975,11 @@
         <f t="array" ref="N245">SECTION_NAME(B245)</f>
         <v>enforce-authorization</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="P245" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -10074,8 +11003,11 @@
         <f t="array" ref="N246">SECTION_NAME(B246)</f>
         <v>enforce-authorization</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P246" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -10099,8 +11031,11 @@
         <f t="array" ref="N247">SECTION_NAME(B247)</f>
         <v>enforce-authorization</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P247" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -10124,8 +11059,11 @@
         <f t="array" ref="N248">SECTION_NAME(B248)</f>
         <v>enforce-authorization</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P248" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -10141,8 +11079,11 @@
       <c r="E249" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P249" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -10158,8 +11099,11 @@
       <c r="E250" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P250" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -10183,8 +11127,11 @@
         <f t="array" ref="N251">SECTION_NAME(B251)</f>
         <v>evaluate-requested-access</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P251" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -10208,8 +11155,11 @@
         <f t="array" ref="N252">SECTION_NAME(B252)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P252" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -10233,8 +11183,11 @@
         <f t="array" ref="N253">SECTION_NAME(B253)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P253" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -10258,8 +11211,11 @@
         <f t="array" ref="N254">SECTION_NAME(B254)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P254" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -10283,8 +11239,11 @@
         <f t="array" ref="N255">SECTION_NAME(B255)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P255" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -10308,8 +11267,11 @@
         <f t="array" ref="N256">SECTION_NAME(B256)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P256" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -10333,8 +11295,11 @@
         <f t="array" ref="N257">SECTION_NAME(B257)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P257" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -10358,8 +11323,11 @@
         <f t="array" ref="N258">SECTION_NAME(B258)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P258" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -10383,8 +11351,11 @@
         <f t="array" ref="N259">SECTION_NAME(B259)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P259" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -10408,8 +11379,11 @@
         <f t="array" ref="N260">SECTION_NAME(B260)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P260" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -10433,8 +11407,11 @@
         <f t="array" ref="N261">SECTION_NAME(B261)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P261" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -10458,8 +11435,11 @@
         <f t="array" ref="N262">SECTION_NAME(B262)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P262" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -10483,8 +11463,11 @@
         <f t="array" ref="N263">SECTION_NAME(B263)</f>
         <v>issue-access-token</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P263" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -10500,8 +11483,11 @@
       <c r="E264" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P264" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -10517,8 +11503,11 @@
       <c r="E265" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P265" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -10542,8 +11531,11 @@
         <f t="array" ref="N266">SECTION_NAME(B266)</f>
         <v>response-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P266" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -10567,8 +11559,11 @@
         <f t="array" ref="N267">SECTION_NAME(B267)</f>
         <v>response-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P267" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -10592,8 +11587,11 @@
         <f t="array" ref="N268">SECTION_NAME(B268)</f>
         <v>response-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P268" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -10617,8 +11615,11 @@
         <f t="array" ref="N269">SECTION_NAME(B269)</f>
         <v>response-3</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P269" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -10642,8 +11643,11 @@
         <f t="array" ref="N270">SECTION_NAME(B270)</f>
         <v>token-introspection</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P270" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -10659,8 +11663,11 @@
       <c r="E271" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P271" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -10675,6 +11682,9 @@
       </c>
       <c r="E272" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="P272" s="6" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="273" spans="1:20" ht="80" x14ac:dyDescent="0.2">
@@ -10701,6 +11711,9 @@
         <f t="array" ref="N273">SECTION_NAME(B273)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P273" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="274" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
@@ -10726,6 +11739,9 @@
         <f t="array" ref="N274">SECTION_NAME(B274)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P274" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="275" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
@@ -10751,6 +11767,9 @@
         <f t="array" ref="N275">SECTION_NAME(B275)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P275" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="276" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
@@ -10776,6 +11795,9 @@
         <f t="array" ref="N276">SECTION_NAME(B276)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P276" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="277" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
@@ -10801,6 +11823,9 @@
         <f t="array" ref="N277">SECTION_NAME(B277)</f>
         <v>required-fields-in-the-introspection-response</v>
       </c>
+      <c r="P277" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="278" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
@@ -10826,6 +11851,9 @@
         <f t="array" ref="N278">SECTION_NAME(B278)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P278" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="279" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
@@ -10851,6 +11879,9 @@
         <f t="array" ref="N279">SECTION_NAME(B279)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P279" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="280" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
@@ -10876,6 +11907,9 @@
         <f t="array" ref="N280">SECTION_NAME(B280)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P280" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="281" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
@@ -10901,6 +11935,9 @@
         <f t="array" ref="N281">SECTION_NAME(B281)</f>
         <v>conditional-fields-in-the-introspection-response</v>
       </c>
+      <c r="P281" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="282" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
@@ -10918,6 +11955,9 @@
       <c r="E282" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P282" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="283" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
@@ -10943,6 +11983,9 @@
         <f t="array" ref="N283">SECTION_NAME(B283)</f>
         <v>authorization-to-perform-token-introspection</v>
       </c>
+      <c r="P283" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="284" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
@@ -10960,6 +12003,9 @@
       <c r="E284" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P284" s="6" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="285" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
@@ -11013,6 +12059,9 @@
         <f t="array" ref="N286">SECTION_NAME(B286)</f>
         <v>advertising-server-support-for-this-profile</v>
       </c>
+      <c r="P286" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="287" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
@@ -11030,6 +12079,9 @@
       <c r="E287" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="P287" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="288" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
@@ -11047,8 +12099,11 @@
       <c r="E288" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P288" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -11064,8 +12119,11 @@
       <c r="E289" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P289" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -11081,8 +12139,11 @@
       <c r="E290" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P290" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -11106,8 +12167,11 @@
         <f t="array" ref="N291">SECTION_NAME(B291)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P291" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -11131,8 +12195,11 @@
         <f t="array" ref="N292">SECTION_NAME(B292)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P292" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -11156,8 +12223,11 @@
         <f t="array" ref="N293">SECTION_NAME(B293)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P293" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -11181,8 +12251,11 @@
         <f t="array" ref="N294">SECTION_NAME(B294)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="P294" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -11206,8 +12279,11 @@
         <f t="array" ref="N295">SECTION_NAME(B295)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P295" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -11231,8 +12307,11 @@
         <f t="array" ref="N296">SECTION_NAME(B296)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P296" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -11256,8 +12335,11 @@
         <f t="array" ref="N297">SECTION_NAME(B297)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P297" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -11281,8 +12363,11 @@
         <f t="array" ref="N298">SECTION_NAME(B298)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P298" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -11306,8 +12391,11 @@
         <f t="array" ref="N299">SECTION_NAME(B299)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P299" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -11323,8 +12411,11 @@
       <c r="E300" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P300" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -11340,8 +12431,11 @@
       <c r="E301" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P301" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -11365,8 +12459,11 @@
         <f t="array" ref="N302">SECTION_NAME(B302)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P302" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -11390,8 +12487,11 @@
         <f t="array" ref="N303">SECTION_NAME(B303)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P303" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -11415,8 +12515,11 @@
         <f t="array" ref="N304">SECTION_NAME(B304)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P304" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -11440,8 +12543,11 @@
         <f t="array" ref="N305">SECTION_NAME(B305)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P305" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -11465,8 +12571,11 @@
         <f t="array" ref="N306">SECTION_NAME(B306)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P306" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -11490,8 +12599,11 @@
         <f t="array" ref="N307">SECTION_NAME(B307)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P307" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -11515,8 +12627,11 @@
         <f t="array" ref="N308">SECTION_NAME(B308)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P308" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -11540,8 +12655,11 @@
         <f t="array" ref="N309">SECTION_NAME(B309)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P309" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -11565,8 +12683,11 @@
         <f t="array" ref="N310">SECTION_NAME(B310)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P310" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -11590,8 +12711,11 @@
         <f t="array" ref="N311">SECTION_NAME(B311)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P311" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -11615,8 +12739,11 @@
         <f t="array" ref="N312">SECTION_NAME(B312)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P312" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -11640,8 +12767,11 @@
         <f t="array" ref="N313">SECTION_NAME(B313)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P313" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -11665,8 +12795,11 @@
         <f t="array" ref="N314">SECTION_NAME(B314)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P314" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -11690,8 +12823,11 @@
         <f t="array" ref="N315">SECTION_NAME(B315)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P315" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -11715,8 +12851,11 @@
         <f t="array" ref="N316">SECTION_NAME(B316)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P316" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -11740,8 +12879,11 @@
         <f t="array" ref="N317">SECTION_NAME(B317)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="P317" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -11765,8 +12907,11 @@
         <f t="array" ref="N318">SECTION_NAME(B318)</f>
         <v>registering-a-client-communicating-public-keys</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="P318" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -11790,8 +12935,11 @@
         <f t="array" ref="N319">SECTION_NAME(B319)</f>
         <v>authenticating-to-the-token-endpoint</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P319" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -11815,8 +12963,11 @@
         <f t="array" ref="N320">SECTION_NAME(B320)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P320" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -11840,8 +12991,11 @@
         <f t="array" ref="N321">SECTION_NAME(B321)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P321" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -11865,8 +13019,11 @@
         <f t="array" ref="N322">SECTION_NAME(B322)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P322" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -11890,8 +13047,11 @@
         <f t="array" ref="N323">SECTION_NAME(B323)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P323" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -11915,8 +13075,11 @@
         <f t="array" ref="N324">SECTION_NAME(B324)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P324" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -11940,8 +13103,11 @@
         <f t="array" ref="N325">SECTION_NAME(B325)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P325" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -11957,8 +13123,11 @@
       <c r="E326" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P326" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -11974,8 +13143,11 @@
       <c r="E327" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P327" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -11999,8 +13171,11 @@
         <f t="array" ref="N328">SECTION_NAME(B328)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P328" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -12024,8 +13199,11 @@
         <f t="array" ref="N329">SECTION_NAME(B329)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P329" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -12049,8 +13227,11 @@
         <f t="array" ref="N330">SECTION_NAME(B330)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P330" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -12074,8 +13255,11 @@
         <f t="array" ref="N331">SECTION_NAME(B331)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P331" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -12099,8 +13283,11 @@
         <f t="array" ref="N332">SECTION_NAME(B332)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P332" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -12124,8 +13311,11 @@
         <f t="array" ref="N333">SECTION_NAME(B333)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P333" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -12149,8 +13339,11 @@
         <f t="array" ref="N334">SECTION_NAME(B334)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P334" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -12174,8 +13367,11 @@
         <f t="array" ref="N335">SECTION_NAME(B335)</f>
         <v>request</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P335" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -12199,6 +13395,9 @@
         <f t="array" ref="N336">SECTION_NAME(B336)</f>
         <v>signature-verification</v>
       </c>
+      <c r="P336" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="337" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
@@ -12224,6 +13423,9 @@
         <f t="array" ref="N337">SECTION_NAME(B337)</f>
         <v>signature-verification</v>
       </c>
+      <c r="P337" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="338" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
@@ -12249,8 +13451,11 @@
         <f t="array" ref="N338">SECTION_NAME(B338)</f>
         <v>signature-verification</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="P338" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -12274,6 +13479,9 @@
         <f t="array" ref="N339">SECTION_NAME(B339)</f>
         <v>signature-verification</v>
       </c>
+      <c r="P339" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="340" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
@@ -12291,6 +13499,9 @@
       <c r="E340" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P340" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="341" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
@@ -12316,8 +13527,11 @@
         <f t="array" ref="N341">SECTION_NAME(B341)</f>
         <v>response</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+      <c r="P341" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -12341,6 +13555,9 @@
         <f t="array" ref="N342">SECTION_NAME(B342)</f>
         <v>response</v>
       </c>
+      <c r="P342" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="343" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
@@ -12366,6 +13583,9 @@
         <f t="array" ref="N343">SECTION_NAME(B343)</f>
         <v>response</v>
       </c>
+      <c r="P343" s="6" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="344" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
@@ -12391,6 +13611,9 @@
         <f t="array" ref="N344">SECTION_NAME(B344)</f>
         <v>profile-audience-and-scope</v>
       </c>
+      <c r="P344" s="6" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="345" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
@@ -12408,6 +13631,9 @@
       <c r="E345" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P345" s="6" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="346" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
@@ -12425,6 +13651,9 @@
       <c r="E346" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P346" s="6" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="347" spans="1:20" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
@@ -12450,6 +13679,9 @@
         <f t="array" ref="N347">SECTION_NAME(B347)</f>
         <v>capability-sets</v>
       </c>
+      <c r="P347" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="348" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
@@ -12500,6 +13732,9 @@
         <f t="array" ref="N349">SECTION_NAME(B349)</f>
         <v>patient-access-for-standalone-apps</v>
       </c>
+      <c r="P349" s="6" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="350" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
@@ -12517,6 +13752,9 @@
       <c r="E350" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P350" s="6" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="351" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
@@ -12534,6 +13772,9 @@
       <c r="E351" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P351" s="6" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="352" spans="1:20" ht="187" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
@@ -12551,8 +13792,11 @@
       <c r="E352" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="P352" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -12568,8 +13812,11 @@
       <c r="E353" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P353" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -12585,8 +13832,11 @@
       <c r="E354" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="P354" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -12602,8 +13852,11 @@
       <c r="E355" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P355" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -12619,8 +13872,11 @@
       <c r="E356" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="P356" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -12636,8 +13892,11 @@
       <c r="E357" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="P357" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -12653,8 +13912,11 @@
       <c r="E358" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P358" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -12670,8 +13932,11 @@
       <c r="E359" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P359" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -12687,8 +13952,11 @@
       <c r="E360" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P360" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -12704,8 +13972,11 @@
       <c r="E361" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P361" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -12721,8 +13992,11 @@
       <c r="E362" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P362" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -12738,8 +14012,11 @@
       <c r="E363" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P363" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -12755,8 +14032,11 @@
       <c r="E364" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="P364" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -12772,8 +14052,11 @@
       <c r="E365" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P365" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -12789,8 +14072,11 @@
       <c r="E366" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="P366" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -12806,8 +14092,11 @@
       <c r="E367" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="P367" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -12822,6 +14111,9 @@
       </c>
       <c r="E368" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="P368" s="6" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="369" spans="1:20" ht="51" x14ac:dyDescent="0.2">
@@ -12840,6 +14132,9 @@
       <c r="E369" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P369" s="6" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="370" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
@@ -12857,6 +14152,9 @@
       <c r="E370" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P370" s="6" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="371" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
@@ -12874,6 +14172,9 @@
       <c r="E371" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P371" s="6" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="372" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
@@ -12891,6 +14192,9 @@
       <c r="E372" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="P372" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="T372" s="6" t="s">
         <v>259</v>
       </c>
@@ -12919,6 +14223,9 @@
         <f t="array" ref="N373">SECTION_NAME(B373)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P373" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="374" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
@@ -12944,6 +14251,9 @@
         <f t="array" ref="N374">SECTION_NAME(B374)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P374" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="375" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
@@ -12969,6 +14279,9 @@
         <f t="array" ref="N375">SECTION_NAME(B375)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P375" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="376" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
@@ -12994,6 +14307,9 @@
         <f t="array" ref="N376">SECTION_NAME(B376)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P376" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="377" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
@@ -13019,6 +14335,9 @@
         <f t="array" ref="N377">SECTION_NAME(B377)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P377" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="378" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
@@ -13044,6 +14363,9 @@
         <f t="array" ref="N378">SECTION_NAME(B378)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P378" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="379" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
@@ -13069,6 +14391,9 @@
         <f t="array" ref="N379">SECTION_NAME(B379)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P379" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="380" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
@@ -13094,6 +14419,9 @@
         <f t="array" ref="N380">SECTION_NAME(B380)</f>
         <v>using-well-known</v>
       </c>
+      <c r="P380" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="381" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
@@ -13119,6 +14447,9 @@
         <f t="array" ref="N381">SECTION_NAME(B381)</f>
         <v>response</v>
       </c>
+      <c r="P381" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="382" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
@@ -13144,6 +14475,9 @@
         <f t="array" ref="N382">SECTION_NAME(B382)</f>
         <v>metadata</v>
       </c>
+      <c r="P382" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="383" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
@@ -13169,6 +14503,9 @@
         <f t="array" ref="N383">SECTION_NAME(B383)</f>
         <v>metadata</v>
       </c>
+      <c r="P383" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="384" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
@@ -13194,6 +14531,9 @@
         <f t="array" ref="N384">SECTION_NAME(B384)</f>
         <v>metadata</v>
       </c>
+      <c r="P384" s="6" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="385" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
@@ -13219,6 +14559,9 @@
         <f t="array" ref="N385">SECTION_NAME(B385)</f>
         <v>metadata</v>
       </c>
+      <c r="P385" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="386" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
@@ -13244,6 +14587,9 @@
         <f t="array" ref="N386">SECTION_NAME(B386)</f>
         <v>metadata</v>
       </c>
+      <c r="P386" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="387" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
@@ -13269,6 +14615,9 @@
         <f t="array" ref="N387">SECTION_NAME(B387)</f>
         <v>metadata</v>
       </c>
+      <c r="P387" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="388" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
@@ -13294,6 +14643,9 @@
         <f t="array" ref="N388">SECTION_NAME(B388)</f>
         <v>metadata</v>
       </c>
+      <c r="P388" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="389" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
@@ -13319,6 +14671,9 @@
         <f t="array" ref="N389">SECTION_NAME(B389)</f>
         <v>metadata</v>
       </c>
+      <c r="P389" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="390" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
@@ -13344,6 +14699,9 @@
         <f t="array" ref="N390">SECTION_NAME(B390)</f>
         <v>metadata</v>
       </c>
+      <c r="P390" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="391" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
@@ -13369,6 +14727,9 @@
         <f t="array" ref="N391">SECTION_NAME(B391)</f>
         <v>metadata</v>
       </c>
+      <c r="P391" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="392" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
@@ -13394,6 +14755,9 @@
         <f t="array" ref="N392">SECTION_NAME(B392)</f>
         <v>metadata</v>
       </c>
+      <c r="P392" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="393" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
@@ -13419,6 +14783,9 @@
         <f t="array" ref="N393">SECTION_NAME(B393)</f>
         <v>metadata</v>
       </c>
+      <c r="P393" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="394" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
@@ -13444,6 +14811,9 @@
         <f t="array" ref="N394">SECTION_NAME(B394)</f>
         <v>metadata</v>
       </c>
+      <c r="P394" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="395" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
@@ -13469,6 +14839,9 @@
         <f t="array" ref="N395">SECTION_NAME(B395)</f>
         <v>metadata</v>
       </c>
+      <c r="P395" s="39" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="396" spans="1:20" ht="272" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
@@ -13494,6 +14867,9 @@
         <f t="array" ref="N396">SECTION_NAME(B396)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P396" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T396" s="6" t="s">
         <v>522</v>
       </c>
@@ -13522,6 +14898,9 @@
         <f t="array" ref="N397">SECTION_NAME(B397)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P397" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T397" s="6" t="s">
         <v>522</v>
       </c>
@@ -13550,6 +14929,9 @@
         <f t="array" ref="N398">SECTION_NAME(B398)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P398" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T398" s="6" t="s">
         <v>522</v>
       </c>
@@ -13578,6 +14960,9 @@
         <f t="array" ref="N399">SECTION_NAME(B399)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P399" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T399" s="6" t="s">
         <v>522</v>
       </c>
@@ -13606,6 +14991,9 @@
         <f t="array" ref="N400">SECTION_NAME(B400)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P400" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T400" s="6" t="s">
         <v>522</v>
       </c>
@@ -13634,6 +15022,9 @@
         <f t="array" ref="N401">SECTION_NAME(B401)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P401" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T401" s="6" t="s">
         <v>522</v>
       </c>
@@ -13662,6 +15053,9 @@
         <f t="array" ref="N402">SECTION_NAME(B402)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P402" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T402" s="6" t="s">
         <v>522</v>
       </c>
@@ -13690,6 +15084,9 @@
         <f t="array" ref="N403">SECTION_NAME(B403)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P403" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T403" s="6" t="s">
         <v>522</v>
       </c>
@@ -13718,6 +15115,9 @@
         <f t="array" ref="N404">SECTION_NAME(B404)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P404" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T404" s="6" t="s">
         <v>522</v>
       </c>
@@ -13746,6 +15146,9 @@
         <f t="array" ref="N405">SECTION_NAME(B405)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P405" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T405" s="6" t="s">
         <v>522</v>
       </c>
@@ -13774,6 +15177,9 @@
         <f t="array" ref="N406">SECTION_NAME(B406)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P406" s="39" t="s">
+        <v>642</v>
+      </c>
       <c r="T406" s="6" t="s">
         <v>522</v>
       </c>
@@ -13802,6 +15208,9 @@
         <f t="array" ref="N407">SECTION_NAME(B407)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P407" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="408" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
@@ -13827,6 +15236,9 @@
         <f t="array" ref="N408">SECTION_NAME(B408)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P408" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="409" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
@@ -13852,6 +15264,9 @@
         <f t="array" ref="N409">SECTION_NAME(B409)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P409" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="410" spans="1:20" ht="119" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
@@ -13877,6 +15292,9 @@
         <f t="array" ref="N410">SECTION_NAME(B410)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P410" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="411" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
@@ -13902,6 +15320,9 @@
         <f t="array" ref="N411">SECTION_NAME(B411)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P411" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="412" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
@@ -13927,6 +15348,9 @@
         <f t="array" ref="N412">SECTION_NAME(B412)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P412" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="413" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
@@ -13952,6 +15376,9 @@
         <f t="array" ref="N413">SECTION_NAME(B413)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P413" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="414" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
@@ -13977,6 +15404,9 @@
         <f t="array" ref="N414">SECTION_NAME(B414)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P414" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="415" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
@@ -14002,6 +15432,9 @@
         <f t="array" ref="N415">SECTION_NAME(B415)</f>
         <v>conformance-overview</v>
       </c>
+      <c r="P415" s="39" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="416" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
@@ -14027,8 +15460,11 @@
         <f t="array" ref="N416">SECTION_NAME(B416)</f>
         <v>conformance-overview</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P416" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -14052,8 +15488,11 @@
         <f t="array" ref="N417">SECTION_NAME(B417)</f>
         <v>fhir-profiles</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P417" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -14077,8 +15516,11 @@
         <f t="array" ref="N418">SECTION_NAME(B418)</f>
         <v>brand-bundle-profile</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P418" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -14102,8 +15544,11 @@
         <f t="array" ref="N419">SECTION_NAME(B419)</f>
         <v>brand-bundle-profile</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P419" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -14127,8 +15572,11 @@
         <f t="array" ref="N420">SECTION_NAME(B420)</f>
         <v>brand-bundle-profile</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P420" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -14152,8 +15600,11 @@
         <f t="array" ref="N421">SECTION_NAME(B421)</f>
         <v>consistent-identifiers-for-organizations</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P421" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -14177,8 +15628,11 @@
         <f t="array" ref="N422">SECTION_NAME(B422)</f>
         <v>consistent-identifiers-for-organizations</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P422" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -14202,8 +15656,11 @@
         <f t="array" ref="N423">SECTION_NAME(B423)</f>
         <v>consistent-identifiers-for-organizations</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P423" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -14227,8 +15684,11 @@
         <f t="array" ref="N424">SECTION_NAME(B424)</f>
         <v>managing-cross-origin-resource-sharing-cors-for-fhir-resources</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P424" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -14252,8 +15712,11 @@
         <f t="array" ref="N425">SECTION_NAME(B425)</f>
         <v>caching-brand-bundles</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="P425" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -14277,8 +15740,11 @@
         <f t="array" ref="N426">SECTION_NAME(B426)</f>
         <v>caching-brand-bundles</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="P426" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -14302,8 +15768,11 @@
         <f t="array" ref="N427">SECTION_NAME(B427)</f>
         <v>caching-brand-bundles</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P427" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -14327,8 +15796,11 @@
         <f t="array" ref="N428">SECTION_NAME(B428)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P428" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -14352,8 +15824,11 @@
         <f t="array" ref="N429">SECTION_NAME(B429)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P429" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -14377,8 +15852,11 @@
         <f t="array" ref="N430">SECTION_NAME(B430)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P430" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -14402,8 +15880,11 @@
         <f t="array" ref="N431">SECTION_NAME(B431)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P431" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -14427,8 +15908,11 @@
         <f t="array" ref="N432">SECTION_NAME(B432)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P432" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -14452,8 +15936,11 @@
         <f t="array" ref="N433">SECTION_NAME(B433)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P433" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -14477,8 +15964,11 @@
         <f t="array" ref="N434">SECTION_NAME(B434)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="P434" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -14502,8 +15992,11 @@
         <f t="array" ref="N435">SECTION_NAME(B435)</f>
         <v>metadata-in-well-knownsmart-configuration</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P435" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -14519,8 +16012,11 @@
       <c r="E436" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="P436" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -14536,8 +16032,11 @@
       <c r="E437" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P437" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -14561,8 +16060,11 @@
         <f t="array" ref="N438">SECTION_NAME(B438)</f>
         <v>must-support-definition-ms-and-data-absent-reasons</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="P438" s="39" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -14570,7 +16072,7 @@
         <v>505</v>
       </c>
       <c r="C439" s="37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>38</v>
@@ -14586,8 +16088,11 @@
         <f t="array" ref="N439">SECTION_NAME(B439)</f>
         <v>metadata</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="P439" s="39" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -14595,7 +16100,7 @@
         <v>505</v>
       </c>
       <c r="C440" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>38</v>
@@ -14611,8 +16116,11 @@
         <f t="array" ref="N440">SECTION_NAME(B440)</f>
         <v>metadata</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="P440" s="39" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M441" s="34" t="str" cm="1">
         <f t="array" ref="M441">PAGE_NAME(B441)</f>
         <v/>
@@ -14622,7 +16130,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M442" s="34" t="str" cm="1">
         <f t="array" ref="M442">PAGE_NAME(B442)</f>
         <v/>
@@ -14632,7 +16140,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M443" s="34" t="str" cm="1">
         <f t="array" ref="M443">PAGE_NAME(B443)</f>
         <v/>
@@ -14642,7 +16150,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M444" s="34" t="str" cm="1">
         <f t="array" ref="M444">PAGE_NAME(B444)</f>
         <v/>
@@ -14652,7 +16160,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M445" s="34" t="str" cm="1">
         <f t="array" ref="M445">PAGE_NAME(B445)</f>
         <v/>
@@ -14662,7 +16170,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M446" s="34" t="str" cm="1">
         <f t="array" ref="M446">PAGE_NAME(B446)</f>
         <v/>
@@ -14672,7 +16180,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M447" s="34" t="str" cm="1">
         <f t="array" ref="M447">PAGE_NAME(B447)</f>
         <v/>
@@ -14682,7 +16190,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="M448" s="34" t="str" cm="1">
         <f t="array" ref="M448">PAGE_NAME(B448)</f>
         <v/>
@@ -15481,6 +16989,7 @@
     <hyperlink ref="B372" r:id="rId333" location="capabilities" xr:uid="{E41379CF-D4D2-4DC5-A897-7DE0ABFCFFFD}"/>
     <hyperlink ref="B439" r:id="rId334" location="metadata" xr:uid="{959D4FCD-6A00-2E41-9FDB-C463D8EFD09A}"/>
     <hyperlink ref="B440" r:id="rId335" location="metadata" xr:uid="{E1AE3417-D87F-284B-949F-2B1ED9F2602A}"/>
+    <hyperlink ref="B155" r:id="rId336" location="scopes-for-requesting-context-data" xr:uid="{2B7A1D99-A4FE-BA46-98B3-8D1FD6DFD2F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15512,27 +17021,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F474-BE25-4449-9222-E1A46A1843B5}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="139.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" s="44"/>
+      <c r="A1" s="48" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" ht="82.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -15599,6 +17108,22 @@
       </c>
       <c r="B13" s="9" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>643</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -15746,12 +17271,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16009,22 +17538,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b5a44311-ed64-4a72-909f-c9dc6973bde2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Description xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-    <SortOrder xmlns="eebd8b74-b9de-41b2-9247-c010c4973c2b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
+    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16050,12 +17578,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19B0E317-5E0E-4728-AB3F-40F2C2B957FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA84097F-5807-4DCF-92C6-48C9EE26CFB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b5a44311-ed64-4a72-909f-c9dc6973bde2"/>
-    <ds:schemaRef ds:uri="eebd8b74-b9de-41b2-9247-c010c4973c2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>